--- a/Computer Tools Final Exam.xlsx
+++ b/Computer Tools Final Exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zephren\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B44DFEA-94A3-495F-B4E9-D67E16813F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825BC847-F181-402F-84C7-FE6402813DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B423A7F-EFE0-40C1-BFAC-FB2F8595C392}"/>
   </bookViews>
@@ -34,6 +34,60 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3B5C1134-597C-43BE-80B8-9B53904D6432}</author>
+    <author>tc={81DD012E-DF55-4F28-885F-230C3A58926A}</author>
+    <author>tc={D8EF977A-12FB-416C-B568-30C292B03F90}</author>
+    <author>tc={1D166F7E-1125-4136-8F58-9140A2F537FD}</author>
+    <author>tc={51D9C134-B403-4A62-B59D-4AC3A8AC6990}</author>
+  </authors>
+  <commentList>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{3B5C1134-597C-43BE-80B8-9B53904D6432}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I know you said to use VLOOKUP, but I couldn't figure out how it would have been useful, and this way seems easier.</t>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="1" shapeId="0" xr:uid="{81DD012E-DF55-4F28-885F-230C3A58926A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    You might have wanted the average total price here. It would be simple to do it that way, one would jut change the G3:G14 to H3:H14. I showed the average unit price because, in a real world scenario, I think it would be more likely for someone to ask for the average unit price rather than the average total price.</t>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="2" shapeId="0" xr:uid="{D8EF977A-12FB-416C-B568-30C292B03F90}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    You may have wanted the sum of all the quantities for crackers here. The word "count" in the question description made me think you wanted me to use the Excel COUNT function, though.</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="3" shapeId="0" xr:uid="{1D166F7E-1125-4136-8F58-9140A2F537FD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    None of the unit prices for Bars are less than $1.50.</t>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="4" shapeId="0" xr:uid="{51D9C134-B403-4A62-B59D-4AC3A8AC6990}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    All of the unit prices for Bars are above $1.00.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
@@ -158,7 +212,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +240,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,24 +267,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
@@ -292,8 +359,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sales Results by Category of Food</a:t>
+              <a:t>Sales Results by Product</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Type</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -373,7 +445,7 @@
             <c:numRef>
               <c:f>Sheet1!$M$4:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>421.26</c:v>
@@ -417,61 +489,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Category</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -538,61 +555,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Sales in Dollars</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -801,7 +763,7 @@
             <c:numRef>
               <c:f>Sheet1!$M$25:$M$29</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>330.99</c:v>
@@ -912,7 +874,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2089,16 +2051,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2131,8 +2093,8 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
@@ -2163,20 +2125,22 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Zephren Charbonneau" id="{74917972-BA7F-4344-A3E6-8408333D8416}" userId="Zephren Charbonneau" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7BEC6E-F701-4CD6-A8E5-64120FDFC884}" name="Table1" displayName="Table1" ref="A2:H14" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6B7BEC6E-F701-4CD6-A8E5-64120FDFC884}" name="Table1" displayName="Table1" ref="A2:H14" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:H14" xr:uid="{6B7BEC6E-F701-4CD6-A8E5-64120FDFC884}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1C502A45-40D2-4977-8C58-B7F12D79D318}" name="OrderDate" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1C502A45-40D2-4977-8C58-B7F12D79D318}" name="OrderDate" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{1AE67EDC-C131-4B4E-A103-62DB87052F72}" name="Region"/>
     <tableColumn id="3" xr3:uid="{3384B052-17F8-4AAD-BD65-9EBBB1266BF1}" name="City"/>
     <tableColumn id="4" xr3:uid="{FFD0872B-5071-4948-93E6-3F361E5CFE68}" name="Category"/>
     <tableColumn id="5" xr3:uid="{F1586D1B-30BE-45FB-BBE1-1E1A426B5E96}" name="Product"/>
     <tableColumn id="6" xr3:uid="{AEE49CB8-EBC6-42C1-B967-F86D4B1C8B69}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{61793E19-266C-48AC-B919-3646565180B3}" name="UnitPrice"/>
+    <tableColumn id="7" xr3:uid="{61793E19-266C-48AC-B919-3646565180B3}" name="UnitPrice" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{95C930C5-901F-4863-B0AD-D40367F0961E}" name="TotalPrice" dataDxfId="0">
       <calculatedColumnFormula>F3*G3</calculatedColumnFormula>
     </tableColumn>
@@ -2480,12 +2444,32 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B27" dT="2022-04-28T21:11:16.27" personId="{74917972-BA7F-4344-A3E6-8408333D8416}" id="{3B5C1134-597C-43BE-80B8-9B53904D6432}">
+    <text>I know you said to use VLOOKUP, but I couldn't figure out how it would have been useful, and this way seems easier.</text>
+  </threadedComment>
+  <threadedComment ref="B29" dT="2022-04-28T21:12:54.31" personId="{74917972-BA7F-4344-A3E6-8408333D8416}" id="{81DD012E-DF55-4F28-885F-230C3A58926A}">
+    <text>You might have wanted the average total price here. It would be simple to do it that way, one would jut change the G3:G14 to H3:H14. I showed the average unit price because, in a real world scenario, I think it would be more likely for someone to ask for the average unit price rather than the average total price.</text>
+  </threadedComment>
+  <threadedComment ref="B31" dT="2022-04-28T21:14:00.40" personId="{74917972-BA7F-4344-A3E6-8408333D8416}" id="{D8EF977A-12FB-416C-B568-30C292B03F90}">
+    <text>You may have wanted the sum of all the quantities for crackers here. The word "count" in the question description made me think you wanted me to use the Excel COUNT function, though.</text>
+  </threadedComment>
+  <threadedComment ref="B35" dT="2022-04-28T21:14:15.70" personId="{74917972-BA7F-4344-A3E6-8408333D8416}" id="{1D166F7E-1125-4136-8F58-9140A2F537FD}">
+    <text>None of the unit prices for Bars are less than $1.50.</text>
+  </threadedComment>
+  <threadedComment ref="B37" dT="2022-04-28T21:14:28.97" personId="{74917972-BA7F-4344-A3E6-8408333D8416}" id="{51D9C134-B403-4A62-B59D-4AC3A8AC6990}">
+    <text>All of the unit prices for Bars are above $1.00.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB0192-091E-47A3-A0DB-29BB78635E57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BB0192-091E-47A3-A0DB-29BB78635E57}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2555,10 +2539,10 @@
       <c r="F3">
         <v>33</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>1.77</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H14" si="0">F3*G3</f>
         <v>58.410000000000004</v>
       </c>
@@ -2588,21 +2572,21 @@
       <c r="F4">
         <v>87</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>3.49</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>303.63</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="9">
         <f>SUMIF(D3:D14, L4, H3:H14)</f>
         <v>421.26</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -2623,21 +2607,21 @@
       <c r="F5">
         <v>58</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>1.87</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>108.46000000000001</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="9">
         <f t="shared" ref="M5:M7" si="1">SUMIF(D4:D15, L5, H4:H15)</f>
         <v>823.64</v>
       </c>
-      <c r="N5" s="9"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2658,21 +2642,21 @@
       <c r="F6">
         <v>82</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>1.87</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>153.34</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="9">
         <f t="shared" si="1"/>
         <v>481.09000000000003</v>
       </c>
-      <c r="N6" s="9"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -2693,21 +2677,21 @@
       <c r="F7">
         <v>38</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>82.84</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="9">
         <f t="shared" si="1"/>
         <v>37.800000000000004</v>
       </c>
-      <c r="N7" s="9"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -2728,15 +2712,15 @@
       <c r="F8">
         <v>54</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>1.77</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>95.58</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -2757,15 +2741,15 @@
       <c r="F9">
         <v>149</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>3.49</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>520.01</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -2786,15 +2770,15 @@
       <c r="F10">
         <v>51</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="10">
         <v>1.77</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>90.27</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -2815,15 +2799,15 @@
       <c r="F11">
         <v>100</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <v>1.77</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -2844,15 +2828,15 @@
       <c r="F12">
         <v>28</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>1.35</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="10">
         <f t="shared" si="0"/>
         <v>37.800000000000004</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -2873,15 +2857,15 @@
       <c r="F13">
         <v>36</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
         <v>78.48</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -2902,49 +2886,51 @@
       <c r="F14">
         <v>31</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="10">
         <v>1.87</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
         <v>57.970000000000006</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="10">
         <f>SUMIF(C3:C14, "Boston", H3:H14) + SUMIF(C3:C14, "New York", H3:H14)</f>
         <v>1565.0600000000002</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="10">
         <f>SUMIFS(H3:H14, B3:B14, "West", E3:E14, "Carrot")</f>
         <v>90.27</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <f>SUMIFS(H3:H14, C3:C14, "Boston", F3:F14, "&gt;20")</f>
         <v>1196.92</v>
       </c>
@@ -2978,24 +2964,25 @@
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
-        <f>SUMIF(E3:E14, "Carrot", H3:H14) + SUMIF(E3:E14, "Potato Chips", H3:H14)</f>
-        <v>459.06</v>
+      <c r="B25" s="10">
+        <f>SUMIF(E3:E14, "Carrot", H3:H14) + SUMIF(E3:E14, "Arrowroot", H3:H14)</f>
+        <v>582.57999999999993</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="10">
         <f>SUMIFS(H3:H14, B3:B14, "East", E3:E14, L25)</f>
         <v>330.99</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
+      <c r="B26" s="10"/>
       <c r="L26" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="10">
         <f t="shared" ref="M26:M29" si="2">SUMIFS(H4:H15, B4:B15, "East", E4:E15, L26)</f>
         <v>823.64</v>
       </c>
@@ -3004,24 +2991,25 @@
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="10">
         <f>SUMIFS(H3:H14, D3:D14, "Cookies", E3:E14, "Chocolate Chip")</f>
         <v>319.77000000000004</v>
       </c>
       <c r="L27" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="10">
         <f t="shared" si="2"/>
         <v>211.31</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
+      <c r="B28" s="10"/>
       <c r="L28" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="10">
         <f t="shared" si="2"/>
         <v>161.32</v>
       </c>
@@ -3030,14 +3018,14 @@
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="10">
         <f>AVERAGEIF(E3:E14, "Whole Wheat", G3:G14)</f>
         <v>3.49</v>
       </c>
       <c r="L29" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="10">
         <f t="shared" si="2"/>
         <v>37.800000000000004</v>
       </c>
@@ -3061,7 +3049,7 @@
       <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="10">
         <f>AVERAGEIF(D3:D14, "C*", G3:G14)</f>
         <v>2.4214285714285713</v>
       </c>
@@ -3073,7 +3061,7 @@
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="10">
         <f>SUMIFS(F3:F14, D3:D14, "Bars", G3:G14, "&lt;1.50")</f>
         <v>0</v>
       </c>
@@ -3085,7 +3073,7 @@
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="10">
         <f>SUMIFS(H3:H14, D3:D14, "Bars", G3:G14, "&gt;1.00")</f>
         <v>421.26</v>
       </c>
@@ -3094,8 +3082,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>